--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelActorData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelActorData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Prefabs\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C4959B-9096-48B9-9614-958AEB867BCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72726CA6-FDAC-4182-BAB1-9E074204B64E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{5261DA47-71AD-4CB5-B01E-720874A98161}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{5261DA47-71AD-4CB5-B01E-720874A98161}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>lv</t>
     <phoneticPr fontId="1"/>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>prefab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>food</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foodmax</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -456,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059A122F-BC19-4743-BF43-FA557188672A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -518,15 +526,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3981A3-CE72-470D-9A64-D5F75FC87F9C}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,19 +548,25 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -566,19 +580,25 @@
         <v>100</v>
       </c>
       <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -592,19 +612,25 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
         <v>10</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -618,19 +644,25 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>15</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -644,19 +676,25 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
         <v>20</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -670,19 +708,25 @@
         <v>3</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
         <v>25</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -696,19 +740,25 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>30</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -722,19 +772,25 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
         <v>35</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -748,19 +804,25 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
         <v>40</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -774,19 +836,25 @@
         <v>3</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
         <v>45</v>
       </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -800,15 +868,21 @@
         <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>50</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0</v>
       </c>
     </row>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelActorData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelActorData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72726CA6-FDAC-4182-BAB1-9E074204B64E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F89AF82-4369-4498-812E-02AD0D96B4FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="1" xr2:uid="{5261DA47-71AD-4CB5-B01E-720874A98161}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{5261DA47-71AD-4CB5-B01E-720874A98161}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>lv</t>
     <phoneticPr fontId="1"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -98,6 +94,16 @@
   </si>
   <si>
     <t>foodmax</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PLAYER</t>
+  </si>
+  <si>
+    <t>ENEMY1</t>
+  </si>
+  <si>
+    <t>EActor</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -464,57 +470,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059A122F-BC19-4743-BF43-FA557188672A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -528,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B3981A3-CE72-470D-9A64-D5F75FC87F9C}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -548,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
@@ -898,7 +904,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -960,7 +966,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -986,7 +992,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -1012,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1038,7 +1044,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1064,7 +1070,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -1090,7 +1096,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1116,7 +1122,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -1142,7 +1148,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -1168,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C11">
         <v>2</v>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelActorData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelActorData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F89AF82-4369-4498-812E-02AD0D96B4FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE4E599-E407-490E-8A06-6383C7748E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{5261DA47-71AD-4CB5-B01E-720874A98161}"/>
   </bookViews>
@@ -103,7 +103,7 @@
     <t>ENEMY1</t>
   </si>
   <si>
-    <t>EActor</t>
+    <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -904,7 +904,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelActorData.xlsx
+++ b/3DLv4_2024/Graduation Project/Assets/Resources/Datas/ExcelActorData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manam.DESKTOP-RTRTCM3\OneDrive\デスクトップ\Git\15Hirota\3DLv4_2024\Graduation Project\Assets\Resources\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE4E599-E407-490E-8A06-6383C7748E43}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E40FC7-319D-4146-B885-A5B87924AE9F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{5261DA47-71AD-4CB5-B01E-720874A98161}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="2" xr2:uid="{5261DA47-71AD-4CB5-B01E-720874A98161}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059A122F-BC19-4743-BF43-FA557188672A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -903,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92248D5-4D6A-4EF5-A002-3942F4080D24}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -943,7 +943,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>85</v>
@@ -1198,5 +1198,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>